--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,961 +473,921 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="B2" t="n">
-        <v>1713.028293625095</v>
+        <v>-562.0379435453863</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.777037236819</v>
+        <v>-681.0764498261483</v>
       </c>
       <c r="D2" t="n">
-        <v>1823.592264871398</v>
+        <v>-455.2250717699332</v>
       </c>
       <c r="E2" t="n">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44551</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44565</v>
+        <v>44579</v>
       </c>
       <c r="B3" t="n">
-        <v>744.8028453232816</v>
+        <v>-754.4057370930885</v>
       </c>
       <c r="C3" t="n">
-        <v>635.0340342873144</v>
+        <v>-866.4952134718068</v>
       </c>
       <c r="D3" t="n">
-        <v>856.3085653598706</v>
+        <v>-637.1539726830698</v>
       </c>
       <c r="E3" t="n">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44572</v>
+        <v>44586</v>
       </c>
       <c r="B4" t="n">
-        <v>-710.5703775287963</v>
+        <v>1511.385829764494</v>
       </c>
       <c r="C4" t="n">
-        <v>-833.201210660227</v>
+        <v>1403.902493780132</v>
       </c>
       <c r="D4" t="n">
-        <v>-591.5072264067878</v>
+        <v>1620.55358273934</v>
       </c>
       <c r="E4" t="n">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44565</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44579</v>
+        <v>44592</v>
       </c>
       <c r="B5" t="n">
-        <v>-1144.671616858542</v>
+        <v>341.5426734569461</v>
       </c>
       <c r="C5" t="n">
-        <v>-1256.066863153485</v>
+        <v>233.2863501710018</v>
       </c>
       <c r="D5" t="n">
-        <v>-1033.640391559279</v>
+        <v>461.8994472917537</v>
       </c>
       <c r="E5" t="n">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44572</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44586</v>
+        <v>44596</v>
       </c>
       <c r="B6" t="n">
-        <v>1478.831598607902</v>
+        <v>390.3377425919211</v>
       </c>
       <c r="C6" t="n">
-        <v>1364.588096344724</v>
+        <v>284.4944416952629</v>
       </c>
       <c r="D6" t="n">
-        <v>1589.238511204069</v>
+        <v>497.501030006497</v>
       </c>
       <c r="E6" t="n">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44579</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44592</v>
+        <v>44600</v>
       </c>
       <c r="B7" t="n">
-        <v>349.7645701013814</v>
+        <v>-273.6351445194367</v>
       </c>
       <c r="C7" t="n">
-        <v>233.1187032708531</v>
+        <v>-378.9550728799704</v>
       </c>
       <c r="D7" t="n">
-        <v>461.0259391642068</v>
+        <v>-174.3805955577589</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44586</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44596</v>
+        <v>44607</v>
       </c>
       <c r="B8" t="n">
-        <v>397.7083779120269</v>
+        <v>727.3875290026901</v>
       </c>
       <c r="C8" t="n">
-        <v>288.083723393523</v>
+        <v>622.5709286525903</v>
       </c>
       <c r="D8" t="n">
-        <v>505.8639839534741</v>
+        <v>837.4318166743008</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B9" t="n">
-        <v>-223.036027454147</v>
+        <v>1890.895391864953</v>
       </c>
       <c r="C9" t="n">
-        <v>-333.3294522984731</v>
+        <v>1776.849744417308</v>
       </c>
       <c r="D9" t="n">
-        <v>-111.2810942837356</v>
+        <v>1999.573735322346</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44593</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="B10" t="n">
-        <v>520.2824832823267</v>
+        <v>-416.1659169015869</v>
       </c>
       <c r="C10" t="n">
-        <v>402.248421175502</v>
+        <v>-532.6085601974398</v>
       </c>
       <c r="D10" t="n">
-        <v>627.1154594519796</v>
+        <v>-302.7678319491388</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44600</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44614</v>
+        <v>44624</v>
       </c>
       <c r="B11" t="n">
-        <v>1466.620605358109</v>
+        <v>-110.3174373150723</v>
       </c>
       <c r="C11" t="n">
-        <v>1348.694990017595</v>
+        <v>-227.3471322090713</v>
       </c>
       <c r="D11" t="n">
-        <v>1577.448783648011</v>
+        <v>7.820939796986343</v>
       </c>
       <c r="E11" t="n">
         <v>96</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44607</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44620</v>
+        <v>44628</v>
       </c>
       <c r="B12" t="n">
-        <v>-703.4670619833971</v>
+        <v>-769.4747692538424</v>
       </c>
       <c r="C12" t="n">
-        <v>-816.7090429190458</v>
+        <v>-888.1259256079646</v>
       </c>
       <c r="D12" t="n">
-        <v>-598.2417636201683</v>
+        <v>-655.2498080406764</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44614</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44624</v>
+        <v>44642</v>
       </c>
       <c r="B13" t="n">
-        <v>-25.97736327703868</v>
+        <v>-46.58997816790287</v>
       </c>
       <c r="C13" t="n">
-        <v>-136.8241374375304</v>
+        <v>-161.2335805469877</v>
       </c>
       <c r="D13" t="n">
-        <v>85.13059664196366</v>
+        <v>63.99989986274207</v>
       </c>
       <c r="E13" t="n">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44621</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="B14" t="n">
-        <v>-431.4310131929896</v>
+        <v>306.3197550353918</v>
       </c>
       <c r="C14" t="n">
-        <v>-546.0494144460823</v>
+        <v>201.5497341263519</v>
       </c>
       <c r="D14" t="n">
-        <v>-317.0951307063573</v>
+        <v>420.7977386627886</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44621</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44642</v>
+        <v>44656</v>
       </c>
       <c r="B15" t="n">
-        <v>2942.124529630563</v>
+        <v>227.4377951184416</v>
       </c>
       <c r="C15" t="n">
-        <v>2826.772847332878</v>
+        <v>113.1068339114701</v>
       </c>
       <c r="D15" t="n">
-        <v>3052.62253750398</v>
+        <v>339.6345364970282</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44635</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44649</v>
+        <v>44670</v>
       </c>
       <c r="B16" t="n">
-        <v>771.6660656290228</v>
+        <v>1351.214747173058</v>
       </c>
       <c r="C16" t="n">
-        <v>662.5418449266492</v>
+        <v>1237.329498234986</v>
       </c>
       <c r="D16" t="n">
-        <v>885.4827457095232</v>
+        <v>1468.773796554352</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>852</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44642</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44656</v>
+        <v>44691</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.4650852650243</v>
+        <v>648.7730202489821</v>
       </c>
       <c r="C17" t="n">
-        <v>-121.6333658886056</v>
+        <v>510.6429642996134</v>
       </c>
       <c r="D17" t="n">
-        <v>104.7574358502603</v>
+        <v>769.9853161868198</v>
       </c>
       <c r="E17" t="n">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44649</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44670</v>
+        <v>44698</v>
       </c>
       <c r="B18" t="n">
-        <v>1314.870076483559</v>
+        <v>-1747.148987295773</v>
       </c>
       <c r="C18" t="n">
-        <v>1198.629244049135</v>
+        <v>-1867.188624117063</v>
       </c>
       <c r="D18" t="n">
-        <v>1417.01817423609</v>
+        <v>-1621.827584672867</v>
       </c>
       <c r="E18" t="n">
-        <v>852</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44663</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44691</v>
+        <v>44705</v>
       </c>
       <c r="B19" t="n">
-        <v>982.1755264315182</v>
+        <v>644.7488433957481</v>
       </c>
       <c r="C19" t="n">
-        <v>856.8644804152011</v>
+        <v>503.2276366573495</v>
       </c>
       <c r="D19" t="n">
-        <v>1098.0826808235</v>
+        <v>794.3975401547312</v>
       </c>
       <c r="E19" t="n">
-        <v>468</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44684</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44698</v>
+        <v>44712</v>
       </c>
       <c r="B20" t="n">
-        <v>-1529.734503117404</v>
+        <v>1209.743799700841</v>
       </c>
       <c r="C20" t="n">
-        <v>-1646.515231752896</v>
+        <v>1062.245318141676</v>
       </c>
       <c r="D20" t="n">
-        <v>-1403.433897705182</v>
+        <v>1362.289826566741</v>
       </c>
       <c r="E20" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44691</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44705</v>
+        <v>44715</v>
       </c>
       <c r="B21" t="n">
-        <v>538.4993435946192</v>
+        <v>387.4316653184256</v>
       </c>
       <c r="C21" t="n">
-        <v>415.8622749696365</v>
+        <v>235.1952563016754</v>
       </c>
       <c r="D21" t="n">
-        <v>665.5814133347089</v>
+        <v>564.7968389471833</v>
       </c>
       <c r="E21" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44698</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44712</v>
+        <v>44722</v>
       </c>
       <c r="B22" t="n">
-        <v>462.1436398545722</v>
+        <v>95.59202242176511</v>
       </c>
       <c r="C22" t="n">
-        <v>332.5851616131384</v>
+        <v>-61.79458625833917</v>
       </c>
       <c r="D22" t="n">
-        <v>592.0518460419046</v>
+        <v>248.548561231017</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44705</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44715</v>
+        <v>44726</v>
       </c>
       <c r="B23" t="n">
-        <v>143.5209569331075</v>
+        <v>-91.78164320727821</v>
       </c>
       <c r="C23" t="n">
-        <v>22.0873439981085</v>
+        <v>-233.4704699673207</v>
       </c>
       <c r="D23" t="n">
-        <v>275.3781493433451</v>
+        <v>69.85449409470928</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44712</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44722</v>
+        <v>44733</v>
       </c>
       <c r="B24" t="n">
-        <v>-137.0911966807549</v>
+        <v>-350.1446084459797</v>
       </c>
       <c r="C24" t="n">
-        <v>-268.6500311633685</v>
+        <v>-506.4886037958518</v>
       </c>
       <c r="D24" t="n">
-        <v>-12.03125784147771</v>
+        <v>-195.3497495520012</v>
       </c>
       <c r="E24" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44719</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44726</v>
+        <v>44908</v>
       </c>
       <c r="B25" t="n">
-        <v>-349.4688865021093</v>
+        <v>-65.60350217686045</v>
       </c>
       <c r="C25" t="n">
-        <v>-471.1712705952251</v>
+        <v>-222.0492549662688</v>
       </c>
       <c r="D25" t="n">
-        <v>-227.4629036278251</v>
+        <v>95.54142018103958</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44719</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44733</v>
+        <v>44915</v>
       </c>
       <c r="B26" t="n">
-        <v>-204.71630477662</v>
+        <v>51.02733431007138</v>
       </c>
       <c r="C26" t="n">
-        <v>-330.8266837693339</v>
+        <v>-96.47748870489153</v>
       </c>
       <c r="D26" t="n">
-        <v>-75.62277107854848</v>
+        <v>222.8729900775397</v>
       </c>
       <c r="E26" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44726</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="B27" t="n">
-        <v>-51.10840041587096</v>
+        <v>139.2204777745739</v>
       </c>
       <c r="C27" t="n">
-        <v>-180.9299993215214</v>
+        <v>-33.50862492092316</v>
       </c>
       <c r="D27" t="n">
-        <v>77.96235124077855</v>
+        <v>295.9925987447414</v>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B28" t="n">
-        <v>68.88601526193796</v>
+        <v>160.0507473265939</v>
       </c>
       <c r="C28" t="n">
-        <v>-63.796770225298</v>
+        <v>10.928346147872</v>
       </c>
       <c r="D28" t="n">
-        <v>196.5348596531509</v>
+        <v>312.467929906234</v>
       </c>
       <c r="E28" t="n">
         <v>96</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
       <c r="B29" t="n">
-        <v>137.4886843535848</v>
+        <v>111.3888112276036</v>
       </c>
       <c r="C29" t="n">
-        <v>3.864045022022608</v>
+        <v>-53.76089832269142</v>
       </c>
       <c r="D29" t="n">
-        <v>270.151359191379</v>
+        <v>264.2547355964514</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B30" t="n">
-        <v>126.5879984272134</v>
+        <v>99.91575362965207</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.042860277669056</v>
+        <v>-53.23509947448972</v>
       </c>
       <c r="D30" t="n">
-        <v>253.7996600117504</v>
+        <v>261.850324810384</v>
       </c>
       <c r="E30" t="n">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B31" t="n">
-        <v>79.65928550243746</v>
+        <v>95.02261385695519</v>
       </c>
       <c r="C31" t="n">
-        <v>-49.15458685238541</v>
+        <v>-69.59481314701769</v>
       </c>
       <c r="D31" t="n">
-        <v>208.1961668824552</v>
+        <v>258.477435113898</v>
       </c>
       <c r="E31" t="n">
-        <v>348</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B32" t="n">
-        <v>108.0589142516905</v>
+        <v>47.23712575626064</v>
       </c>
       <c r="C32" t="n">
-        <v>-25.65510851190126</v>
+        <v>-121.6739796506904</v>
       </c>
       <c r="D32" t="n">
-        <v>239.3851297744154</v>
+        <v>212.6365917337484</v>
       </c>
       <c r="E32" t="n">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B33" t="n">
-        <v>132.5020773132491</v>
+        <v>66.6035251763729</v>
       </c>
       <c r="C33" t="n">
-        <v>5.454555185857427</v>
+        <v>-94.52856231776889</v>
       </c>
       <c r="D33" t="n">
-        <v>259.6814192116466</v>
+        <v>235.0326366848871</v>
       </c>
       <c r="E33" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20.11180196396069</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-142.7411894028861</v>
+      </c>
+      <c r="D34" t="n">
+        <v>178.0574549547141</v>
+      </c>
+      <c r="E34" t="n">
+        <v>192</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B34" t="n">
-        <v>74.95830382292098</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-61.54845490427051</v>
-      </c>
-      <c r="D34" t="n">
-        <v>207.0117467501131</v>
-      </c>
-      <c r="E34" t="n">
-        <v>48</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B35" t="n">
-        <v>69.38817750055031</v>
+        <v>15.36590972470432</v>
       </c>
       <c r="C35" t="n">
-        <v>-70.08876915485004</v>
+        <v>-146.0706253720644</v>
       </c>
       <c r="D35" t="n">
-        <v>199.4532416918276</v>
+        <v>172.5681807553714</v>
       </c>
       <c r="E35" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B36" t="n">
-        <v>15.50937291285405</v>
+        <v>-53.80336045242606</v>
       </c>
       <c r="C36" t="n">
-        <v>-112.9576921835598</v>
+        <v>-210.1318916203793</v>
       </c>
       <c r="D36" t="n">
-        <v>150.5796473397855</v>
+        <v>117.992043109177</v>
       </c>
       <c r="E36" t="n">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B37" t="n">
-        <v>2.363505635959456</v>
+        <v>-34.75499573756687</v>
       </c>
       <c r="C37" t="n">
-        <v>-129.9904679306881</v>
+        <v>-192.1683309206233</v>
       </c>
       <c r="D37" t="n">
-        <v>137.2421874641808</v>
+        <v>142.0459778616414</v>
       </c>
       <c r="E37" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B38" t="n">
-        <v>9.928897532476924</v>
+        <v>67.51343919359934</v>
       </c>
       <c r="C38" t="n">
-        <v>-120.7611052967712</v>
+        <v>-88.36274822211577</v>
       </c>
       <c r="D38" t="n">
-        <v>152.8192962648129</v>
+        <v>229.6858526333687</v>
       </c>
       <c r="E38" t="n">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B39" t="n">
+        <v>89.22735564585402</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-68.54999411023798</v>
+      </c>
+      <c r="D39" t="n">
+        <v>244.8822975053864</v>
+      </c>
+      <c r="E39" t="n">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7.968721253349429</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-121.4505062447585</v>
-      </c>
-      <c r="D39" t="n">
-        <v>145.7378078244305</v>
-      </c>
-      <c r="E39" t="n">
-        <v>108</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B40" t="n">
-        <v>85.61303192133856</v>
+        <v>189.1389564008963</v>
       </c>
       <c r="C40" t="n">
-        <v>-46.81274117759035</v>
+        <v>37.70128720382622</v>
       </c>
       <c r="D40" t="n">
-        <v>217.8590274354311</v>
+        <v>343.8272187947784</v>
       </c>
       <c r="E40" t="n">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44992</v>
+        <v>45013</v>
       </c>
       <c r="B41" t="n">
-        <v>99.39010056965215</v>
+        <v>-10.60219367969556</v>
       </c>
       <c r="C41" t="n">
-        <v>-42.9966174724677</v>
+        <v>-167.125033695097</v>
       </c>
       <c r="D41" t="n">
-        <v>234.6615815930138</v>
+        <v>137.0507362011433</v>
       </c>
       <c r="E41" t="n">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="B42" t="n">
-        <v>150.0915754087873</v>
+        <v>89.46838446125383</v>
       </c>
       <c r="C42" t="n">
-        <v>16.97435308562081</v>
+        <v>-58.58881510153433</v>
       </c>
       <c r="D42" t="n">
-        <v>284.3853017359536</v>
+        <v>253.093034746546</v>
       </c>
       <c r="E42" t="n">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44992</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B43" t="n">
-        <v>22.28864672023701</v>
+        <v>451.5180563632949</v>
       </c>
       <c r="C43" t="n">
-        <v>-108.8780707872369</v>
+        <v>295.1736050731658</v>
       </c>
       <c r="D43" t="n">
-        <v>152.3544438554846</v>
+        <v>604.8909421658353</v>
       </c>
       <c r="E43" t="n">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B44" t="n">
-        <v>212.2611476475206</v>
+        <v>943.1332242146739</v>
       </c>
       <c r="C44" t="n">
-        <v>77.72447370775537</v>
+        <v>786.3646254741127</v>
       </c>
       <c r="D44" t="n">
-        <v>337.71793222854</v>
+        <v>1116.440560038629</v>
       </c>
       <c r="E44" t="n">
-        <v>144</v>
+        <v>528</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="B45" t="n">
-        <v>536.7250131539569</v>
+        <v>1300.945454865963</v>
       </c>
       <c r="C45" t="n">
-        <v>394.5215288519284</v>
+        <v>1137.416013064043</v>
       </c>
       <c r="D45" t="n">
-        <v>666.4335927081377</v>
+        <v>1463.379672377449</v>
       </c>
       <c r="E45" t="n">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45034</v>
+        <v>45055</v>
       </c>
       <c r="B46" t="n">
-        <v>880.8339580719206</v>
+        <v>521.8590204011823</v>
       </c>
       <c r="C46" t="n">
-        <v>739.3151026090275</v>
+        <v>337.7556901525265</v>
       </c>
       <c r="D46" t="n">
-        <v>1014.136119404519</v>
+        <v>705.5465225062793</v>
       </c>
       <c r="E46" t="n">
-        <v>528</v>
+        <v>216</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45027</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B47" t="n">
-        <v>973.4931858027994</v>
+        <v>-24.33520825732592</v>
       </c>
       <c r="C47" t="n">
-        <v>826.2326216221355</v>
+        <v>-226.3418460449962</v>
       </c>
       <c r="D47" t="n">
-        <v>1121.382930947623</v>
+        <v>170.0267170046242</v>
       </c>
       <c r="E47" t="n">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B48" t="n">
-        <v>329.6682573705183</v>
-      </c>
-      <c r="C48" t="n">
-        <v>172.3850313152108</v>
-      </c>
-      <c r="D48" t="n">
-        <v>480.6942610979118</v>
-      </c>
-      <c r="E48" t="n">
-        <v>216</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-11.43367020250184</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-180.2140033140548</v>
-      </c>
-      <c r="D49" t="n">
-        <v>139.0820391150831</v>
-      </c>
-      <c r="E49" t="n">
-        <v>60</v>
-      </c>
-      <c r="F49" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1497,22 +1457,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>31338.7588019319</v>
+        <v>37520.49939875259</v>
       </c>
       <c r="C2" t="n">
-        <v>177.0275650906714</v>
+        <v>193.7020892988834</v>
       </c>
       <c r="D2" t="n">
-        <v>137.5494475635065</v>
+        <v>155.7296430722803</v>
       </c>
       <c r="E2" t="n">
-        <v>1.511401883354605</v>
+        <v>1.644084272789979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8608980237302861</v>
+        <v>1.358180757831388</v>
       </c>
       <c r="G2" t="n">
-        <v>1.097224297620524</v>
+        <v>0.9698307460137576</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1523,22 +1483,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>173707.538040542</v>
+        <v>83879.46444007359</v>
       </c>
       <c r="C3" t="n">
-        <v>416.7823629192363</v>
+        <v>289.6195166767488</v>
       </c>
       <c r="D3" t="n">
-        <v>293.0826318029478</v>
+        <v>228.2919691257734</v>
       </c>
       <c r="E3" t="n">
-        <v>3.21369100572159</v>
+        <v>2.416404792976889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8639749547791211</v>
+        <v>1.286117222384639</v>
       </c>
       <c r="G3" t="n">
-        <v>1.141670104192791</v>
+        <v>1.072219949344615</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1549,25 +1509,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>544315.1096262578</v>
+        <v>400928.4276522412</v>
       </c>
       <c r="C4" t="n">
-        <v>737.777140894361</v>
+        <v>633.1890931248273</v>
       </c>
       <c r="D4" t="n">
-        <v>483.3841892713172</v>
+        <v>426.7363339636163</v>
       </c>
       <c r="E4" t="n">
-        <v>3.585035635573774</v>
+        <v>3.426180598431586</v>
       </c>
       <c r="F4" t="n">
-        <v>1.098665654768201</v>
+        <v>1.321805516088582</v>
       </c>
       <c r="G4" t="n">
-        <v>1.275864083851539</v>
+        <v>1.265810209354068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2820512820512819</v>
+        <v>0.3513513513513513</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,222 +473,222 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B2" t="n">
-        <v>-562.0379435453863</v>
+        <v>742.8187845943385</v>
       </c>
       <c r="C2" t="n">
-        <v>-681.0764498261483</v>
+        <v>631.1412633221563</v>
       </c>
       <c r="D2" t="n">
-        <v>-455.2250717699332</v>
+        <v>851.1880531178442</v>
       </c>
       <c r="E2" t="n">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44565</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B3" t="n">
-        <v>-754.4057370930885</v>
+        <v>-529.206671877538</v>
       </c>
       <c r="C3" t="n">
-        <v>-866.4952134718068</v>
+        <v>-630.0381876312201</v>
       </c>
       <c r="D3" t="n">
-        <v>-637.1539726830698</v>
+        <v>-418.4276460245816</v>
       </c>
       <c r="E3" t="n">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B4" t="n">
-        <v>1511.385829764494</v>
+        <v>-1108.980434572767</v>
       </c>
       <c r="C4" t="n">
-        <v>1403.902493780132</v>
+        <v>-1216.105106680582</v>
       </c>
       <c r="D4" t="n">
-        <v>1620.55358273934</v>
+        <v>-996.9024456437566</v>
       </c>
       <c r="E4" t="n">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B5" t="n">
-        <v>341.5426734569461</v>
+        <v>1360.868727984451</v>
       </c>
       <c r="C5" t="n">
-        <v>233.2863501710018</v>
+        <v>1259.242895582968</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8994472917537</v>
+        <v>1474.13744423625</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B6" t="n">
-        <v>390.3377425919211</v>
+        <v>284.3184804746875</v>
       </c>
       <c r="C6" t="n">
-        <v>284.4944416952629</v>
+        <v>178.5742181501792</v>
       </c>
       <c r="D6" t="n">
-        <v>497.501030006497</v>
+        <v>388.1975551093191</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44600</v>
+        <v>44596</v>
       </c>
       <c r="B7" t="n">
-        <v>-273.6351445194367</v>
+        <v>548.8307796055958</v>
       </c>
       <c r="C7" t="n">
-        <v>-378.9550728799704</v>
+        <v>442.7154479538617</v>
       </c>
       <c r="D7" t="n">
-        <v>-174.3805955577589</v>
+        <v>664.6869826147059</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44607</v>
+        <v>44600</v>
       </c>
       <c r="B8" t="n">
-        <v>727.3875290026901</v>
+        <v>-1076.631525042471</v>
       </c>
       <c r="C8" t="n">
-        <v>622.5709286525903</v>
+        <v>-1177.139984897052</v>
       </c>
       <c r="D8" t="n">
-        <v>837.4318166743008</v>
+        <v>-972.2108051261429</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44600</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44614</v>
+        <v>44607</v>
       </c>
       <c r="B9" t="n">
-        <v>1890.895391864953</v>
+        <v>774.1320053139339</v>
       </c>
       <c r="C9" t="n">
-        <v>1776.849744417308</v>
+        <v>659.5844426716521</v>
       </c>
       <c r="D9" t="n">
-        <v>1999.573735322346</v>
+        <v>879.8451540115166</v>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44607</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44620</v>
+        <v>44614</v>
       </c>
       <c r="B10" t="n">
-        <v>-416.1659169015869</v>
+        <v>1616.151651244114</v>
       </c>
       <c r="C10" t="n">
-        <v>-532.6085601974398</v>
+        <v>1513.493015510098</v>
       </c>
       <c r="D10" t="n">
-        <v>-302.7678319491388</v>
+        <v>1725.40624646436</v>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44614</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="B11" t="n">
-        <v>-110.3174373150723</v>
+        <v>-544.9672635885455</v>
       </c>
       <c r="C11" t="n">
-        <v>-227.3471322090713</v>
+        <v>-652.2152476340432</v>
       </c>
       <c r="D11" t="n">
-        <v>7.820939796986343</v>
+        <v>-433.1021336511851</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44621</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44628</v>
+        <v>44624</v>
       </c>
       <c r="B12" t="n">
-        <v>-769.4747692538424</v>
+        <v>-1560.367334384662</v>
       </c>
       <c r="C12" t="n">
-        <v>-888.1259256079646</v>
+        <v>-1674.841667694306</v>
       </c>
       <c r="D12" t="n">
-        <v>-655.2498080406764</v>
+        <v>-1450.098472877949</v>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44621</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="13">
@@ -696,13 +696,13 @@
         <v>44642</v>
       </c>
       <c r="B13" t="n">
-        <v>-46.58997816790287</v>
+        <v>-2517.368142802929</v>
       </c>
       <c r="C13" t="n">
-        <v>-161.2335805469877</v>
+        <v>-2629.747752141256</v>
       </c>
       <c r="D13" t="n">
-        <v>63.99989986274207</v>
+        <v>-2408.765277800166</v>
       </c>
       <c r="E13" t="n">
         <v>240</v>
@@ -716,13 +716,13 @@
         <v>44649</v>
       </c>
       <c r="B14" t="n">
-        <v>306.3197550353918</v>
+        <v>480.7823929741261</v>
       </c>
       <c r="C14" t="n">
-        <v>201.5497341263519</v>
+        <v>365.321326187226</v>
       </c>
       <c r="D14" t="n">
-        <v>420.7977386627886</v>
+        <v>593.9771063754305</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -736,13 +736,13 @@
         <v>44656</v>
       </c>
       <c r="B15" t="n">
-        <v>227.4377951184416</v>
+        <v>255.6464416683649</v>
       </c>
       <c r="C15" t="n">
-        <v>113.1068339114701</v>
+        <v>145.3416663898521</v>
       </c>
       <c r="D15" t="n">
-        <v>339.6345364970282</v>
+        <v>359.6534781861164</v>
       </c>
       <c r="E15" t="n">
         <v>156</v>
@@ -753,159 +753,159 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="B16" t="n">
-        <v>1351.214747173058</v>
+        <v>591.5246130166739</v>
       </c>
       <c r="C16" t="n">
-        <v>1237.329498234986</v>
+        <v>485.5036674432982</v>
       </c>
       <c r="D16" t="n">
-        <v>1468.773796554352</v>
+        <v>704.5194599568391</v>
       </c>
       <c r="E16" t="n">
-        <v>852</v>
+        <v>156</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44691</v>
+        <v>44670</v>
       </c>
       <c r="B17" t="n">
-        <v>648.7730202489821</v>
+        <v>1194.512526758924</v>
       </c>
       <c r="C17" t="n">
-        <v>510.6429642996134</v>
+        <v>1069.631194349988</v>
       </c>
       <c r="D17" t="n">
-        <v>769.9853161868198</v>
+        <v>1313.573577995153</v>
       </c>
       <c r="E17" t="n">
-        <v>468</v>
+        <v>852</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44684</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B18" t="n">
-        <v>-1747.148987295773</v>
+        <v>639.2716418522805</v>
       </c>
       <c r="C18" t="n">
-        <v>-1867.188624117063</v>
+        <v>515.3104374804209</v>
       </c>
       <c r="D18" t="n">
-        <v>-1621.827584672867</v>
+        <v>767.6286197212664</v>
       </c>
       <c r="E18" t="n">
-        <v>144</v>
+        <v>468</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="B19" t="n">
-        <v>644.7488433957481</v>
+        <v>-1720.691475936379</v>
       </c>
       <c r="C19" t="n">
-        <v>503.2276366573495</v>
+        <v>-1848.109927912858</v>
       </c>
       <c r="D19" t="n">
-        <v>794.3975401547312</v>
+        <v>-1587.609903544964</v>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="B20" t="n">
-        <v>1209.743799700841</v>
+        <v>803.0374337362662</v>
       </c>
       <c r="C20" t="n">
-        <v>1062.245318141676</v>
+        <v>650.5269725808261</v>
       </c>
       <c r="D20" t="n">
-        <v>1362.289826566741</v>
+        <v>945.0810009208299</v>
       </c>
       <c r="E20" t="n">
         <v>72</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44715</v>
+        <v>44712</v>
       </c>
       <c r="B21" t="n">
-        <v>387.4316653184256</v>
+        <v>1337.354077202403</v>
       </c>
       <c r="C21" t="n">
-        <v>235.1952563016754</v>
+        <v>1193.179434441067</v>
       </c>
       <c r="D21" t="n">
-        <v>564.7968389471833</v>
+        <v>1487.472370263068</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44722</v>
+        <v>44715</v>
       </c>
       <c r="B22" t="n">
-        <v>95.59202242176511</v>
+        <v>395.1418193775148</v>
       </c>
       <c r="C22" t="n">
-        <v>-61.79458625833917</v>
+        <v>221.0421014212563</v>
       </c>
       <c r="D22" t="n">
-        <v>248.548561231017</v>
+        <v>558.646123726336</v>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44726</v>
+        <v>44722</v>
       </c>
       <c r="B23" t="n">
-        <v>-91.78164320727821</v>
+        <v>83.61568738809177</v>
       </c>
       <c r="C23" t="n">
-        <v>-233.4704699673207</v>
+        <v>-87.15212859414457</v>
       </c>
       <c r="D23" t="n">
-        <v>69.85449409470928</v>
+        <v>241.7122257674503</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44719</v>
@@ -913,219 +913,219 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
       <c r="B24" t="n">
-        <v>-350.1446084459797</v>
+        <v>-106.5759320547757</v>
       </c>
       <c r="C24" t="n">
-        <v>-506.4886037958518</v>
+        <v>-266.3711184393386</v>
       </c>
       <c r="D24" t="n">
-        <v>-195.3497495520012</v>
+        <v>58.55758328342426</v>
       </c>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44726</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44908</v>
+        <v>44733</v>
       </c>
       <c r="B25" t="n">
-        <v>-65.60350217686045</v>
+        <v>-377.7185787642983</v>
       </c>
       <c r="C25" t="n">
-        <v>-222.0492549662688</v>
+        <v>-542.3194352781173</v>
       </c>
       <c r="D25" t="n">
-        <v>95.54142018103958</v>
+        <v>-208.6521978842821</v>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44901</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B26" t="n">
-        <v>51.02733431007138</v>
+        <v>-71.60921637314172</v>
       </c>
       <c r="C26" t="n">
-        <v>-96.47748870489153</v>
+        <v>-236.4383337869993</v>
       </c>
       <c r="D26" t="n">
-        <v>222.8729900775397</v>
+        <v>86.4880717110719</v>
       </c>
       <c r="E26" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B27" t="n">
-        <v>139.2204777745739</v>
+        <v>39.20422168023759</v>
       </c>
       <c r="C27" t="n">
-        <v>-33.50862492092316</v>
+        <v>-132.7853791077814</v>
       </c>
       <c r="D27" t="n">
-        <v>295.9925987447414</v>
+        <v>200.3218364286833</v>
       </c>
       <c r="E27" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B28" t="n">
-        <v>160.0507473265939</v>
+        <v>124.1291208605957</v>
       </c>
       <c r="C28" t="n">
-        <v>10.928346147872</v>
+        <v>-39.51793766850489</v>
       </c>
       <c r="D28" t="n">
-        <v>312.467929906234</v>
+        <v>283.8730244994696</v>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B29" t="n">
-        <v>111.3888112276036</v>
+        <v>136.295842004802</v>
       </c>
       <c r="C29" t="n">
-        <v>-53.76089832269142</v>
+        <v>-18.05672010517324</v>
       </c>
       <c r="D29" t="n">
-        <v>264.2547355964514</v>
+        <v>291.5286473668856</v>
       </c>
       <c r="E29" t="n">
-        <v>348</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B30" t="n">
-        <v>99.91575362965207</v>
+        <v>87.18423614061371</v>
       </c>
       <c r="C30" t="n">
-        <v>-53.23509947448972</v>
+        <v>-80.77350177238478</v>
       </c>
       <c r="D30" t="n">
-        <v>261.850324810384</v>
+        <v>243.466560828873</v>
       </c>
       <c r="E30" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B31" t="n">
-        <v>95.02261385695519</v>
+        <v>90.74810448109005</v>
       </c>
       <c r="C31" t="n">
-        <v>-69.59481314701769</v>
+        <v>-70.49081306769993</v>
       </c>
       <c r="D31" t="n">
-        <v>258.477435113898</v>
+        <v>254.9074514828338</v>
       </c>
       <c r="E31" t="n">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B32" t="n">
-        <v>47.23712575626064</v>
+        <v>102.2128980399271</v>
       </c>
       <c r="C32" t="n">
-        <v>-121.6739796506904</v>
+        <v>-63.70025282499861</v>
       </c>
       <c r="D32" t="n">
-        <v>212.6365917337484</v>
+        <v>272.5448663299187</v>
       </c>
       <c r="E32" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B33" t="n">
-        <v>66.6035251763729</v>
+        <v>64.42293272855636</v>
       </c>
       <c r="C33" t="n">
-        <v>-94.52856231776889</v>
+        <v>-103.103277973826</v>
       </c>
       <c r="D33" t="n">
-        <v>235.0326366848871</v>
+        <v>242.2727277801926</v>
       </c>
       <c r="E33" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B34" t="n">
-        <v>20.11180196396069</v>
+        <v>61.59289296248744</v>
       </c>
       <c r="C34" t="n">
-        <v>-142.7411894028861</v>
+        <v>-114.6159957452273</v>
       </c>
       <c r="D34" t="n">
-        <v>178.0574549547141</v>
+        <v>230.2047431868566</v>
       </c>
       <c r="E34" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>44957</v>
@@ -1133,59 +1133,59 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B35" t="n">
-        <v>15.36590972470432</v>
+        <v>26.66070360942689</v>
       </c>
       <c r="C35" t="n">
-        <v>-146.0706253720644</v>
+        <v>-146.0606244442335</v>
       </c>
       <c r="D35" t="n">
-        <v>172.5681807553714</v>
+        <v>193.342680412025</v>
       </c>
       <c r="E35" t="n">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B36" t="n">
-        <v>-53.80336045242606</v>
+        <v>2.52958384516765</v>
       </c>
       <c r="C36" t="n">
-        <v>-210.1318916203793</v>
+        <v>-158.252627466325</v>
       </c>
       <c r="D36" t="n">
-        <v>117.992043109177</v>
+        <v>177.1532035019096</v>
       </c>
       <c r="E36" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B37" t="n">
-        <v>-34.75499573756687</v>
+        <v>-75.92376815720385</v>
       </c>
       <c r="C37" t="n">
-        <v>-192.1683309206233</v>
+        <v>-240.3802006988852</v>
       </c>
       <c r="D37" t="n">
-        <v>142.0459778616414</v>
+        <v>95.52210406771839</v>
       </c>
       <c r="E37" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>44978</v>
@@ -1193,39 +1193,39 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B38" t="n">
-        <v>67.51343919359934</v>
+        <v>-10.81582691900539</v>
       </c>
       <c r="C38" t="n">
-        <v>-88.36274822211577</v>
+        <v>-167.4214952218448</v>
       </c>
       <c r="D38" t="n">
-        <v>229.6858526333687</v>
+        <v>160.4128503268583</v>
       </c>
       <c r="E38" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B39" t="n">
-        <v>89.22735564585402</v>
+        <v>105.3108317627263</v>
       </c>
       <c r="C39" t="n">
-        <v>-68.54999411023798</v>
+        <v>-56.06991925250998</v>
       </c>
       <c r="D39" t="n">
-        <v>244.8822975053864</v>
+        <v>277.0245960266163</v>
       </c>
       <c r="E39" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>44985</v>
@@ -1233,161 +1233,181 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B40" t="n">
-        <v>189.1389564008963</v>
+        <v>183.8175490926781</v>
       </c>
       <c r="C40" t="n">
-        <v>37.70128720382622</v>
+        <v>23.7429395626545</v>
       </c>
       <c r="D40" t="n">
-        <v>343.8272187947784</v>
+        <v>357.8888550302424</v>
       </c>
       <c r="E40" t="n">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B41" t="n">
-        <v>-10.60219367969556</v>
+        <v>287.1542484957639</v>
       </c>
       <c r="C41" t="n">
-        <v>-167.125033695097</v>
+        <v>131.9908271033705</v>
       </c>
       <c r="D41" t="n">
-        <v>137.0507362011433</v>
+        <v>443.6835881967794</v>
       </c>
       <c r="E41" t="n">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B42" t="n">
-        <v>89.46838446125383</v>
+        <v>-67.56618190257522</v>
       </c>
       <c r="C42" t="n">
-        <v>-58.58881510153433</v>
+        <v>-232.5937320365623</v>
       </c>
       <c r="D42" t="n">
-        <v>253.093034746546</v>
+        <v>99.21961491258774</v>
       </c>
       <c r="E42" t="n">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B43" t="n">
-        <v>451.5180563632949</v>
+        <v>-46.81158535438316</v>
       </c>
       <c r="C43" t="n">
-        <v>295.1736050731658</v>
+        <v>-196.247042750705</v>
       </c>
       <c r="D43" t="n">
-        <v>604.8909421658353</v>
+        <v>117.5323241329732</v>
       </c>
       <c r="E43" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B44" t="n">
-        <v>943.1332242146739</v>
+        <v>318.9481216283679</v>
       </c>
       <c r="C44" t="n">
-        <v>786.3646254741127</v>
+        <v>158.0831686411897</v>
       </c>
       <c r="D44" t="n">
-        <v>1116.440560038629</v>
+        <v>486.3582039036791</v>
       </c>
       <c r="E44" t="n">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B45" t="n">
-        <v>1300.945454865963</v>
+        <v>877.4516980146076</v>
       </c>
       <c r="C45" t="n">
-        <v>1137.416013064043</v>
+        <v>716.5330848475448</v>
       </c>
       <c r="D45" t="n">
-        <v>1463.379672377449</v>
+        <v>1022.096761793084</v>
       </c>
       <c r="E45" t="n">
-        <v>384</v>
+        <v>528</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B46" t="n">
-        <v>521.8590204011823</v>
+        <v>1318.261211624266</v>
       </c>
       <c r="C46" t="n">
-        <v>337.7556901525265</v>
+        <v>1156.779052307031</v>
       </c>
       <c r="D46" t="n">
-        <v>705.5465225062793</v>
+        <v>1493.156161677008</v>
       </c>
       <c r="E46" t="n">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B47" t="n">
+        <v>532.482345469252</v>
+      </c>
+      <c r="C47" t="n">
+        <v>348.2453050663217</v>
+      </c>
+      <c r="D47" t="n">
+        <v>717.591317474865</v>
+      </c>
+      <c r="E47" t="n">
+        <v>216</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B47" t="n">
-        <v>-24.33520825732592</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-226.3418460449962</v>
-      </c>
-      <c r="D47" t="n">
-        <v>170.0267170046242</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="B48" t="n">
+        <v>-31.00566397179171</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-233.1576351006962</v>
+      </c>
+      <c r="D48" t="n">
+        <v>160.9459029063116</v>
+      </c>
+      <c r="E48" t="n">
         <v>60</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F48" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1457,51 +1477,51 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>37520.49939875259</v>
+        <v>79764.09553495835</v>
       </c>
       <c r="C2" t="n">
-        <v>193.7020892988834</v>
+        <v>282.4253804723618</v>
       </c>
       <c r="D2" t="n">
-        <v>155.7296430722803</v>
+        <v>178.3180252212404</v>
       </c>
       <c r="E2" t="n">
-        <v>1.644084272789979</v>
+        <v>1.824270170420605</v>
       </c>
       <c r="F2" t="n">
-        <v>1.358180757831388</v>
+        <v>0.3773130005780367</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9698307460137576</v>
+        <v>0.7378365796393942</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>83879.46444007359</v>
+        <v>1060894.66849627</v>
       </c>
       <c r="C3" t="n">
-        <v>289.6195166767488</v>
+        <v>1029.997411888141</v>
       </c>
       <c r="D3" t="n">
-        <v>228.2919691257734</v>
+        <v>959.5414000899448</v>
       </c>
       <c r="E3" t="n">
-        <v>2.416404792976889</v>
+        <v>9.083417989654821</v>
       </c>
       <c r="F3" t="n">
-        <v>1.286117222384639</v>
+        <v>4.968722491159871</v>
       </c>
       <c r="G3" t="n">
-        <v>1.072219949344615</v>
+        <v>1.607985911670214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1509,25 +1529,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>400928.4276522412</v>
+        <v>561545.7697797627</v>
       </c>
       <c r="C4" t="n">
-        <v>633.1890931248273</v>
+        <v>749.3635764965913</v>
       </c>
       <c r="D4" t="n">
-        <v>426.7363339636163</v>
+        <v>444.131483741844</v>
       </c>
       <c r="E4" t="n">
-        <v>3.426180598431586</v>
+        <v>3.577002543609712</v>
       </c>
       <c r="F4" t="n">
-        <v>1.321805516088582</v>
+        <v>1.312806397697108</v>
       </c>
       <c r="G4" t="n">
-        <v>1.265810209354068</v>
+        <v>1.226245577252985</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3513513513513513</v>
+        <v>0.393939393939394</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,119 +473,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44565</v>
+        <v>44558</v>
       </c>
       <c r="B2" t="n">
-        <v>742.8187845943385</v>
+        <v>1363.000065557729</v>
       </c>
       <c r="C2" t="n">
-        <v>631.1412633221563</v>
+        <v>1247.792847430542</v>
       </c>
       <c r="D2" t="n">
-        <v>851.1880531178442</v>
+        <v>1479.596158845394</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44561</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B3" t="n">
-        <v>-529.206671877538</v>
+        <v>792.5915017735986</v>
       </c>
       <c r="C3" t="n">
-        <v>-630.0381876312201</v>
+        <v>678.0966372618129</v>
       </c>
       <c r="D3" t="n">
-        <v>-418.4276460245816</v>
+        <v>912.5179918400216</v>
       </c>
       <c r="E3" t="n">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44568</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B4" t="n">
-        <v>-1108.980434572767</v>
+        <v>-436.2564939009702</v>
       </c>
       <c r="C4" t="n">
-        <v>-1216.105106680582</v>
+        <v>-549.2338160884575</v>
       </c>
       <c r="D4" t="n">
-        <v>-996.9024456437566</v>
+        <v>-327.8225554085948</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B5" t="n">
-        <v>1360.868727984451</v>
+        <v>-978.6715220700677</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.242895582968</v>
+        <v>-1087.66480019884</v>
       </c>
       <c r="D5" t="n">
-        <v>1474.13744423625</v>
+        <v>-868.3674657618673</v>
       </c>
       <c r="E5" t="n">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B6" t="n">
-        <v>284.3184804746875</v>
+        <v>1315.648275312812</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5742181501792</v>
+        <v>1212.333107118252</v>
       </c>
       <c r="D6" t="n">
-        <v>388.1975551093191</v>
+        <v>1422.520900707882</v>
       </c>
       <c r="E6" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B7" t="n">
-        <v>548.8307796055958</v>
+        <v>254.968595147746</v>
       </c>
       <c r="C7" t="n">
-        <v>442.7154479538617</v>
+        <v>145.677788639916</v>
       </c>
       <c r="D7" t="n">
-        <v>664.6869826147059</v>
+        <v>369.1118040026469</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44589</v>
@@ -593,99 +593,99 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44600</v>
+        <v>44596</v>
       </c>
       <c r="B8" t="n">
-        <v>-1076.631525042471</v>
+        <v>434.772003330555</v>
       </c>
       <c r="C8" t="n">
-        <v>-1177.139984897052</v>
+        <v>327.9006385597648</v>
       </c>
       <c r="D8" t="n">
-        <v>-972.2108051261429</v>
+        <v>542.8183338398679</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44596</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44607</v>
+        <v>44600</v>
       </c>
       <c r="B9" t="n">
-        <v>774.1320053139339</v>
+        <v>-1133.80780818787</v>
       </c>
       <c r="C9" t="n">
-        <v>659.5844426716521</v>
+        <v>-1252.647303737708</v>
       </c>
       <c r="D9" t="n">
-        <v>879.8451540115166</v>
+        <v>-1020.421130554665</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44603</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44614</v>
+        <v>44607</v>
       </c>
       <c r="B10" t="n">
-        <v>1616.151651244114</v>
+        <v>685.1242256392634</v>
       </c>
       <c r="C10" t="n">
-        <v>1513.493015510098</v>
+        <v>572.4976644667515</v>
       </c>
       <c r="D10" t="n">
-        <v>1725.40624646436</v>
+        <v>796.2732044154276</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44610</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44620</v>
+        <v>44614</v>
       </c>
       <c r="B11" t="n">
-        <v>-544.9672635885455</v>
+        <v>1520.759433484463</v>
       </c>
       <c r="C11" t="n">
-        <v>-652.2152476340432</v>
+        <v>1409.025527801869</v>
       </c>
       <c r="D11" t="n">
-        <v>-433.1021336511851</v>
+        <v>1634.675357442185</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44617</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>-1560.367334384662</v>
+        <v>-792.331153294348</v>
       </c>
       <c r="C12" t="n">
-        <v>-1674.841667694306</v>
+        <v>-906.5907633316594</v>
       </c>
       <c r="D12" t="n">
-        <v>-1450.098472877949</v>
+        <v>-683.8614320633005</v>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44617</v>
@@ -693,239 +693,239 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44642</v>
+        <v>44624</v>
       </c>
       <c r="B13" t="n">
-        <v>-2517.368142802929</v>
+        <v>-2289.488365791422</v>
       </c>
       <c r="C13" t="n">
-        <v>-2629.747752141256</v>
+        <v>-2411.32657221715</v>
       </c>
       <c r="D13" t="n">
-        <v>-2408.765277800166</v>
+        <v>-2187.70653968035</v>
       </c>
       <c r="E13" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44635</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44649</v>
+        <v>44642</v>
       </c>
       <c r="B14" t="n">
-        <v>480.7823929741261</v>
+        <v>-214.9092638101806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.321326187226</v>
+        <v>-326.5059495988819</v>
       </c>
       <c r="D14" t="n">
-        <v>593.9771063754305</v>
+        <v>-101.1893390204169</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44642</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B15" t="n">
-        <v>255.6464416683649</v>
+        <v>1555.30455414984</v>
       </c>
       <c r="C15" t="n">
-        <v>145.3416663898521</v>
+        <v>1441.701724564661</v>
       </c>
       <c r="D15" t="n">
-        <v>359.6534781861164</v>
+        <v>1665.602347458639</v>
       </c>
       <c r="E15" t="n">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44649</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="B16" t="n">
-        <v>591.5246130166739</v>
+        <v>13.39397188490756</v>
       </c>
       <c r="C16" t="n">
-        <v>485.5036674432982</v>
+        <v>-91.55870108605018</v>
       </c>
       <c r="D16" t="n">
-        <v>704.5194599568391</v>
+        <v>124.0295576197679</v>
       </c>
       <c r="E16" t="n">
         <v>156</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="B17" t="n">
-        <v>1194.512526758924</v>
+        <v>510.672679662984</v>
       </c>
       <c r="C17" t="n">
-        <v>1069.631194349988</v>
+        <v>397.7250559413959</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.573577995153</v>
+        <v>626.0839612867953</v>
       </c>
       <c r="E17" t="n">
-        <v>852</v>
+        <v>156</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44691</v>
+        <v>44670</v>
       </c>
       <c r="B18" t="n">
-        <v>639.2716418522805</v>
+        <v>1222.200633037965</v>
       </c>
       <c r="C18" t="n">
-        <v>515.3104374804209</v>
+        <v>1114.865648614756</v>
       </c>
       <c r="D18" t="n">
-        <v>767.6286197212664</v>
+        <v>1338.05767935705</v>
       </c>
       <c r="E18" t="n">
-        <v>468</v>
+        <v>852</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44684</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B19" t="n">
-        <v>-1720.691475936379</v>
+        <v>1067.806216888622</v>
       </c>
       <c r="C19" t="n">
-        <v>-1848.109927912858</v>
+        <v>935.5950273192635</v>
       </c>
       <c r="D19" t="n">
-        <v>-1587.609903544964</v>
+        <v>1197.098476177589</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>468</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="B20" t="n">
-        <v>803.0374337362662</v>
+        <v>-2031.844548124638</v>
       </c>
       <c r="C20" t="n">
-        <v>650.5269725808261</v>
+        <v>-2155.978661499582</v>
       </c>
       <c r="D20" t="n">
-        <v>945.0810009208299</v>
+        <v>-1898.273063583101</v>
       </c>
       <c r="E20" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="B21" t="n">
-        <v>1337.354077202403</v>
+        <v>833.028905981803</v>
       </c>
       <c r="C21" t="n">
-        <v>1193.179434441067</v>
+        <v>695.108588194544</v>
       </c>
       <c r="D21" t="n">
-        <v>1487.472370263068</v>
+        <v>958.9097782360891</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44715</v>
+        <v>44712</v>
       </c>
       <c r="B22" t="n">
-        <v>395.1418193775148</v>
+        <v>787.1239782098721</v>
       </c>
       <c r="C22" t="n">
-        <v>221.0421014212563</v>
+        <v>645.6117690684434</v>
       </c>
       <c r="D22" t="n">
-        <v>558.646123726336</v>
+        <v>925.3852865024154</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44722</v>
+        <v>44715</v>
       </c>
       <c r="B23" t="n">
-        <v>83.61568738809177</v>
+        <v>198.5620151276825</v>
       </c>
       <c r="C23" t="n">
-        <v>-87.15212859414457</v>
+        <v>66.20086190715902</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7122257674503</v>
+        <v>344.7318953884687</v>
       </c>
       <c r="E23" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44726</v>
+        <v>44722</v>
       </c>
       <c r="B24" t="n">
-        <v>-106.5759320547757</v>
+        <v>-150.2241554058419</v>
       </c>
       <c r="C24" t="n">
-        <v>-266.3711184393386</v>
+        <v>-284.4820483879061</v>
       </c>
       <c r="D24" t="n">
-        <v>58.55758328342426</v>
+        <v>-3.077966125134704</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44719</v>
@@ -933,219 +933,219 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
       <c r="B25" t="n">
-        <v>-377.7185787642983</v>
+        <v>-405.624174181435</v>
       </c>
       <c r="C25" t="n">
-        <v>-542.3194352781173</v>
+        <v>-552.9748457742149</v>
       </c>
       <c r="D25" t="n">
-        <v>-208.6521978842821</v>
+        <v>-269.0297983560804</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44726</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44908</v>
+        <v>44733</v>
       </c>
       <c r="B26" t="n">
-        <v>-71.60921637314172</v>
+        <v>-287.5790555565709</v>
       </c>
       <c r="C26" t="n">
-        <v>-236.4383337869993</v>
+        <v>-428.4739474768859</v>
       </c>
       <c r="D26" t="n">
-        <v>86.4880717110719</v>
+        <v>-154.5016585506544</v>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44901</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B27" t="n">
-        <v>39.20422168023759</v>
+        <v>-47.05076339570672</v>
       </c>
       <c r="C27" t="n">
-        <v>-132.7853791077814</v>
+        <v>-200.5764506523877</v>
       </c>
       <c r="D27" t="n">
-        <v>200.3218364286833</v>
+        <v>101.9423243370614</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B28" t="n">
-        <v>124.1291208605957</v>
+        <v>72.78058297537166</v>
       </c>
       <c r="C28" t="n">
-        <v>-39.51793766850489</v>
+        <v>-61.15914038014105</v>
       </c>
       <c r="D28" t="n">
-        <v>283.8730244994696</v>
+        <v>222.9734283341489</v>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B29" t="n">
-        <v>136.295842004802</v>
+        <v>142.6277667902498</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.05672010517324</v>
+        <v>0.5979975144212986</v>
       </c>
       <c r="D29" t="n">
-        <v>291.5286473668856</v>
+        <v>283.7099753271643</v>
       </c>
       <c r="E29" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B30" t="n">
-        <v>87.18423614061371</v>
+        <v>130.7680531428737</v>
       </c>
       <c r="C30" t="n">
-        <v>-80.77350177238478</v>
+        <v>-8.834122876815947</v>
       </c>
       <c r="D30" t="n">
-        <v>243.466560828873</v>
+        <v>276.8869451673496</v>
       </c>
       <c r="E30" t="n">
-        <v>348</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B31" t="n">
-        <v>90.74810448109005</v>
+        <v>79.1013181182785</v>
       </c>
       <c r="C31" t="n">
-        <v>-70.49081306769993</v>
+        <v>-61.06076434564018</v>
       </c>
       <c r="D31" t="n">
-        <v>254.9074514828338</v>
+        <v>223.3641843947176</v>
       </c>
       <c r="E31" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B32" t="n">
-        <v>102.2128980399271</v>
+        <v>107.0122583896548</v>
       </c>
       <c r="C32" t="n">
-        <v>-63.70025282499861</v>
+        <v>-45.97478439880127</v>
       </c>
       <c r="D32" t="n">
-        <v>272.5448663299187</v>
+        <v>240.4982014421954</v>
       </c>
       <c r="E32" t="n">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B33" t="n">
-        <v>64.42293272855636</v>
+        <v>134.4032621275177</v>
       </c>
       <c r="C33" t="n">
-        <v>-103.103277973826</v>
+        <v>-9.307406543008824</v>
       </c>
       <c r="D33" t="n">
-        <v>242.2727277801926</v>
+        <v>287.3834737994107</v>
       </c>
       <c r="E33" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B34" t="n">
-        <v>61.59289296248744</v>
+        <v>86.18175266953438</v>
       </c>
       <c r="C34" t="n">
-        <v>-114.6159957452273</v>
+        <v>-54.61070393043045</v>
       </c>
       <c r="D34" t="n">
-        <v>230.2047431868566</v>
+        <v>230.5333018389021</v>
       </c>
       <c r="E34" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B35" t="n">
-        <v>26.66070360942689</v>
+        <v>70.87230242511365</v>
       </c>
       <c r="C35" t="n">
-        <v>-146.0606244442335</v>
+        <v>-67.80719219807273</v>
       </c>
       <c r="D35" t="n">
-        <v>193.342680412025</v>
+        <v>217.1965778396429</v>
       </c>
       <c r="E35" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>44957</v>
@@ -1153,59 +1153,59 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B36" t="n">
-        <v>2.52958384516765</v>
+        <v>21.89715478856061</v>
       </c>
       <c r="C36" t="n">
-        <v>-158.252627466325</v>
+        <v>-123.5489150777881</v>
       </c>
       <c r="D36" t="n">
-        <v>177.1532035019096</v>
+        <v>178.4053049714962</v>
       </c>
       <c r="E36" t="n">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B37" t="n">
-        <v>-75.92376815720385</v>
+        <v>-7.341057237847039</v>
       </c>
       <c r="C37" t="n">
-        <v>-240.3802006988852</v>
+        <v>-143.245496653315</v>
       </c>
       <c r="D37" t="n">
-        <v>95.52210406771839</v>
+        <v>146.8362919535888</v>
       </c>
       <c r="E37" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>-10.81582691900539</v>
+        <v>-28.47662466421444</v>
       </c>
       <c r="C38" t="n">
-        <v>-167.4214952218448</v>
+        <v>-170.8082112403429</v>
       </c>
       <c r="D38" t="n">
-        <v>160.4128503268583</v>
+        <v>112.3913431657524</v>
       </c>
       <c r="E38" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>44978</v>
@@ -1213,39 +1213,39 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B39" t="n">
-        <v>105.3108317627263</v>
+        <v>23.85570245356243</v>
       </c>
       <c r="C39" t="n">
-        <v>-56.06991925250998</v>
+        <v>-122.2616855375204</v>
       </c>
       <c r="D39" t="n">
-        <v>277.0245960266163</v>
+        <v>166.2941221897228</v>
       </c>
       <c r="E39" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B40" t="n">
-        <v>183.8175490926781</v>
+        <v>123.2466756447763</v>
       </c>
       <c r="C40" t="n">
-        <v>23.7429395626545</v>
+        <v>-12.29867490555883</v>
       </c>
       <c r="D40" t="n">
-        <v>357.8888550302424</v>
+        <v>273.3011546795828</v>
       </c>
       <c r="E40" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>44985</v>
@@ -1253,161 +1253,181 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B41" t="n">
-        <v>287.1542484957639</v>
+        <v>183.4299812389781</v>
       </c>
       <c r="C41" t="n">
-        <v>131.9908271033705</v>
+        <v>26.87106978886887</v>
       </c>
       <c r="D41" t="n">
-        <v>443.6835881967794</v>
+        <v>324.0040131430902</v>
       </c>
       <c r="E41" t="n">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B42" t="n">
-        <v>-67.56618190257522</v>
+        <v>239.1579991170719</v>
       </c>
       <c r="C42" t="n">
-        <v>-232.5937320365623</v>
+        <v>110.8654360200622</v>
       </c>
       <c r="D42" t="n">
-        <v>99.21961491258774</v>
+        <v>369.5370084666318</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B43" t="n">
-        <v>-46.81158535438316</v>
+        <v>-54.3125965012805</v>
       </c>
       <c r="C43" t="n">
-        <v>-196.247042750705</v>
+        <v>-198.0447203060531</v>
       </c>
       <c r="D43" t="n">
-        <v>117.5323241329732</v>
+        <v>86.61875791560944</v>
       </c>
       <c r="E43" t="n">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>318.9481216283679</v>
+        <v>35.11388265361826</v>
       </c>
       <c r="C44" t="n">
-        <v>158.0831686411897</v>
+        <v>-103.167075235292</v>
       </c>
       <c r="D44" t="n">
-        <v>486.3582039036791</v>
+        <v>169.426223476552</v>
       </c>
       <c r="E44" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>877.4516980146076</v>
+        <v>373.4836781821932</v>
       </c>
       <c r="C45" t="n">
-        <v>716.5330848475448</v>
+        <v>229.5347722719908</v>
       </c>
       <c r="D45" t="n">
-        <v>1022.096761793084</v>
+        <v>520.5256161518814</v>
       </c>
       <c r="E45" t="n">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B46" t="n">
-        <v>1318.261211624266</v>
+        <v>807.1134119733298</v>
       </c>
       <c r="C46" t="n">
-        <v>1156.779052307031</v>
+        <v>672.0254173204116</v>
       </c>
       <c r="D46" t="n">
-        <v>1493.156161677008</v>
+        <v>957.308677383435</v>
       </c>
       <c r="E46" t="n">
-        <v>384</v>
+        <v>528</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B47" t="n">
-        <v>532.482345469252</v>
+        <v>1021.909945958212</v>
       </c>
       <c r="C47" t="n">
-        <v>348.2453050663217</v>
+        <v>871.0270102235419</v>
       </c>
       <c r="D47" t="n">
-        <v>717.591317474865</v>
+        <v>1170.927438290694</v>
       </c>
       <c r="E47" t="n">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B48" t="n">
+        <v>355.6501032861363</v>
+      </c>
+      <c r="C48" t="n">
+        <v>196.6897172539929</v>
+      </c>
+      <c r="D48" t="n">
+        <v>522.7706698238738</v>
+      </c>
+      <c r="E48" t="n">
+        <v>216</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B48" t="n">
-        <v>-31.00566397179171</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-233.1576351006962</v>
-      </c>
-      <c r="D48" t="n">
-        <v>160.9459029063116</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="B49" t="n">
+        <v>-19.27448047301186</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-176.9223664108116</v>
+      </c>
+      <c r="D49" t="n">
+        <v>141.5073255587781</v>
+      </c>
+      <c r="E49" t="n">
         <v>60</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F49" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1477,22 +1497,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>79764.09553495835</v>
+        <v>140580.5499857354</v>
       </c>
       <c r="C2" t="n">
-        <v>282.4253804723618</v>
+        <v>374.9407286301869</v>
       </c>
       <c r="D2" t="n">
-        <v>178.3180252212404</v>
+        <v>216.3278234842881</v>
       </c>
       <c r="E2" t="n">
-        <v>1.824270170420605</v>
+        <v>2.349043820399564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3773130005780367</v>
+        <v>0.4992292184712992</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7378365796393942</v>
+        <v>0.8672377068192514</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666667</v>
@@ -1503,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1060894.66849627</v>
+        <v>976395.9517041285</v>
       </c>
       <c r="C3" t="n">
-        <v>1029.997411888141</v>
+        <v>988.1274976965921</v>
       </c>
       <c r="D3" t="n">
-        <v>959.5414000899448</v>
+        <v>929.2324157408467</v>
       </c>
       <c r="E3" t="n">
-        <v>9.083417989654821</v>
+        <v>8.130159910133385</v>
       </c>
       <c r="F3" t="n">
-        <v>4.968722491159871</v>
+        <v>4.480361107573152</v>
       </c>
       <c r="G3" t="n">
-        <v>1.607985911670214</v>
+        <v>1.562307227711323</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1529,25 +1549,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>561545.7697797627</v>
+        <v>487398.0651033018</v>
       </c>
       <c r="C4" t="n">
-        <v>749.3635764965913</v>
+        <v>698.1390012764663</v>
       </c>
       <c r="D4" t="n">
-        <v>444.131483741844</v>
+        <v>418.1693442824767</v>
       </c>
       <c r="E4" t="n">
-        <v>3.577002543609712</v>
+        <v>4.345554410796257</v>
       </c>
       <c r="F4" t="n">
-        <v>1.312806397697108</v>
+        <v>1.050979564151716</v>
       </c>
       <c r="G4" t="n">
-        <v>1.226245577252985</v>
+        <v>1.212186016140306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.393939393939394</v>
+        <v>0.3636363636363638</v>
       </c>
     </row>
   </sheetData>
